--- a/docs/src/datasets-especificaciones/tramites/tramite.xlsx
+++ b/docs/src/datasets-especificaciones/tramites/tramite.xlsx
@@ -1,37 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>organizacion_id</t>
+  </si>
+  <si>
+    <t>organizacion_nombre</t>
+  </si>
+  <si>
+    <t>tramite_id</t>
+  </si>
+  <si>
+    <t>tramite_nombre</t>
+  </si>
+  <si>
+    <t>tramite_descripcion</t>
+  </si>
+  <si>
+    <t>tramite_area_depende</t>
+  </si>
+  <si>
+    <t>tramite_dias_semana</t>
+  </si>
+  <si>
+    <t>tramite_hora inicio</t>
+  </si>
+  <si>
+    <t>tramite_hora_fin</t>
+  </si>
+  <si>
+    <t>tramite_prerequisitos</t>
+  </si>
+  <si>
+    <t>tramite_costo</t>
+  </si>
+  <si>
+    <t>tramite_area_direccion</t>
+  </si>
+  <si>
+    <t>tramite_web</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>Municipio de Bahia Blanca</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Licencia Original</t>
+  </si>
+  <si>
+    <t>Si tramitás por primera vez una licencia, o se te venció hace más de 90 días, tenés que hacer el siguiente trámite.</t>
+  </si>
+  <si>
+    <t>Dirección de Tránsito y Transporte,</t>
+  </si>
+  <si>
+    <t>Lunes a Viernes</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>Sacar turno para el Curso de Seguridad Vial ingresando a “Capacitación”. Solo principiantes o quienes tengan licencias vencidas hace más de 5 años. (Ingresar a Turnos de Licencia). Sacar turno para iniciar el trámite ingresando a “Solicitar Turno”. (Ingresar a Turnos de Licencia) Documento de Identidad: original y copia, con domicilio en el partido de Bahía Blanca. En caso de no tener el DNI, presentar constancia de DNI en trámite, con todos los datos, incluso el domicilio. Menores de 18 años: Deben tener autorización de padre y madre, o tutor, certificada por un Juez de Paz o un Escribano Público. Si alguno de los padres hubiera fallecido, hay que adjuntar el Certificado o partida de defunción, y la Partida de nacimiento o Libreta de Familia. El siguiente formulario debe completarse por duplicado. (Descargar formulario) Las fotos se toman en la Dirección General de Tránsito y Transporte al momento de presentación para sacar la licencia. Presentar la constancia de grupo sanguíneo, la cual podrá ser emitida por hospital público, o por un laboratorio privado. Abonar los sellados correspondientes. Licencias de clase C,D y E: El solicitante debe tener entre 21 y 65 años y un año de antigüedad con licencia clase B. en este caso se debe presentar un audiometría actualizada y certificado de antecedentes penales.</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>Undiano 1165</t>
+  </si>
+  <si>
+    <t>https://www.bahia.gob.ar/tramites/conducir/original/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +139,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,154 +461,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>organizacion_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>organizacion_nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_id</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_nombre</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_descripcion</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_area_depende</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_dias_semana</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_hora inicio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_hora_fin</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_prerequisitos</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_costo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_area_direccion</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>tramite_web</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Municipio de Bahia Blanca</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Licencia Original</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Si tramitás por primera vez una licencia, o se te venció hace más de 90 días, tenés que hacer el siguiente trámite.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Dirección de Tránsito y Transporte,</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Lunes a Viernes</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Sacar turno para el Curso de Seguridad Vial ingresando a “Capacitación”. Solo principiantes o quienes tengan licencias vencidas hace más de 5 años. (Ingresar a Turnos de Licencia). Sacar turno para iniciar el trámite ingresando a “Solicitar Turno”. (Ingresar a Turnos de Licencia) Documento de Identidad: original y copia, con domicilio en el partido de Bahía Blanca. En caso de no tener el DNI, presentar constancia de DNI en trámite, con todos los datos, incluso el domicilio. Menores de 18 años: Deben tener autorización de padre y madre, o tutor, certificada por un Juez de Paz o un Escribano Público. Si alguno de los padres hubiera fallecido, hay que adjuntar el Certificado o partida de defunción, y la Partida de nacimiento o Libreta de Familia. El siguiente formulario debe completarse por duplicado. (Descargar formulario) Las fotos se toman en la Dirección General de Tránsito y Transporte al momento de presentación para sacar la licencia. Presentar la constancia de grupo sanguíneo, la cual podrá ser emitida por hospital público, o por un laboratorio privado. Abonar los sellados correspondientes. Licencias de clase C,D y E: El solicitante debe tener entre 21 y 65 años y un año de antigüedad con licencia clase B. en este caso se debe presentar un audiometría actualizada y certificado de antecedentes penales.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1364</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Undiano 1165</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>https://www.bahia.gob.ar/tramites/conducir/original/</t>
-        </is>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>